--- a/Kazwini/datakazwani.xlsx
+++ b/Kazwini/datakazwani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Kazwini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74C9BB7-A947-4E39-B27E-5EBD39A542B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A59667-30AD-46A0-899D-89C818D72161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86EE98D5-C49E-423F-8B69-E5E94B31D34B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86EE98D5-C49E-423F-8B69-E5E94B31D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -25,192 +25,426 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
-  <si>
-    <t>DEWI PURWANINGSIH</t>
-  </si>
-  <si>
-    <t>5203137112870154</t>
-  </si>
-  <si>
-    <t>ARIFIN</t>
-  </si>
-  <si>
-    <t>5203130107600499</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RIPAI</t>
-  </si>
-  <si>
-    <t>5203133110740001</t>
-  </si>
-  <si>
-    <t>IDA HAYANI</t>
-  </si>
-  <si>
-    <t>5203134305750002</t>
-  </si>
-  <si>
-    <t>ASRUR ROBI'</t>
-  </si>
-  <si>
-    <t>5203130412920002</t>
-  </si>
-  <si>
-    <t>H. MUH. JIHAD</t>
-  </si>
-  <si>
-    <t>5203133112550215</t>
-  </si>
-  <si>
-    <t>NUR MUH. JIHAD</t>
-  </si>
-  <si>
-    <t>5203131110000002</t>
-  </si>
-  <si>
-    <t>NASRAH</t>
-  </si>
-  <si>
-    <t>5203115507940003</t>
-  </si>
-  <si>
-    <t>MUH. WIJANI</t>
-  </si>
-  <si>
-    <t>5203133112780125</t>
-  </si>
-  <si>
-    <t>PUSPA WARNI</t>
-  </si>
-  <si>
-    <t>5203137112900105</t>
-  </si>
-  <si>
-    <t>MUHLAS ABROR</t>
-  </si>
-  <si>
-    <t>5203130603910005</t>
-  </si>
-  <si>
-    <t>ARLI JADID HARDI</t>
-  </si>
-  <si>
-    <t>5203131205970001</t>
-  </si>
-  <si>
-    <t>NISA ALISTIANA</t>
-  </si>
-  <si>
-    <t>5203135011000003</t>
-  </si>
-  <si>
-    <t>SAHRUDIN</t>
-  </si>
-  <si>
-    <t>5203130107780473</t>
-  </si>
-  <si>
-    <t>MUNAWARAH</t>
-  </si>
-  <si>
-    <t>5203134108770005</t>
-  </si>
-  <si>
-    <t>H. SAPOAN</t>
-  </si>
-  <si>
-    <t>5203130101760002</t>
-  </si>
-  <si>
-    <t>DINA MALIKAH</t>
-  </si>
-  <si>
-    <t>5203134107870635</t>
-  </si>
-  <si>
-    <t>Kemar</t>
-  </si>
-  <si>
-    <t>5203091910720003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri </t>
-  </si>
-  <si>
-    <t>5203095406860002</t>
-  </si>
-  <si>
-    <t>SUMIANI</t>
-  </si>
-  <si>
-    <t>5203097112720066</t>
-  </si>
-  <si>
-    <t>NUR ASRI ROMDIANA</t>
-  </si>
-  <si>
-    <t>5203075511960005</t>
-  </si>
-  <si>
-    <t>HULLATURROI</t>
-  </si>
-  <si>
-    <t>5203134705990005</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>RAUDATUL JANNAH</t>
   </si>
   <si>
-    <t>5203137112960017</t>
-  </si>
-  <si>
-    <t>SUSANTI</t>
-  </si>
-  <si>
-    <t>5203084307070006</t>
-  </si>
-  <si>
-    <t>SITI ROSIDA</t>
-  </si>
-  <si>
-    <t>5203095708980009</t>
-  </si>
-  <si>
-    <t>ZURRIYATUN</t>
-  </si>
-  <si>
-    <t>5203136303950003</t>
-  </si>
-  <si>
-    <t>INAH</t>
-  </si>
-  <si>
-    <t>5203096907910003</t>
-  </si>
-  <si>
-    <t>MURNIASIH</t>
-  </si>
-  <si>
-    <t>5203097112830040</t>
-  </si>
-  <si>
-    <t>SRI</t>
-  </si>
-  <si>
-    <t>5203135608970002</t>
-  </si>
-  <si>
-    <t>SAMSUL HADI</t>
-  </si>
-  <si>
-    <t>5203133112820038</t>
-  </si>
-  <si>
-    <t>AQ. ROHATI</t>
-  </si>
-  <si>
-    <t>5203133112550204</t>
+    <t>Rena</t>
+  </si>
+  <si>
+    <t>5203095904010003</t>
+  </si>
+  <si>
+    <t>Siti</t>
+  </si>
+  <si>
+    <t>5203095511030003</t>
+  </si>
+  <si>
+    <t>Isnahudin</t>
+  </si>
+  <si>
+    <t>5203091708800005</t>
+  </si>
+  <si>
+    <t>Fatimatun</t>
+  </si>
+  <si>
+    <t>5203096010880003</t>
+  </si>
+  <si>
+    <t>Mile</t>
+  </si>
+  <si>
+    <t>5203090107670291</t>
+  </si>
+  <si>
+    <t>Kersa</t>
+  </si>
+  <si>
+    <t>5203094107670307</t>
+  </si>
+  <si>
+    <t>RIAMSAH</t>
+  </si>
+  <si>
+    <t>5203090107040125</t>
+  </si>
+  <si>
+    <t>FATIMAH</t>
+  </si>
+  <si>
+    <t>5203094107921007</t>
+  </si>
+  <si>
+    <t>L. FAJRI</t>
+  </si>
+  <si>
+    <t>5203133112010031</t>
+  </si>
+  <si>
+    <t>NURALAM</t>
+  </si>
+  <si>
+    <t>5203133112710145</t>
+  </si>
+  <si>
+    <t>NIKMAH</t>
+  </si>
+  <si>
+    <t>5203137112550084</t>
+  </si>
+  <si>
+    <t>PASILAWATI</t>
+  </si>
+  <si>
+    <t>5203136202050002</t>
+  </si>
+  <si>
+    <t>INAQ HERMAN</t>
+  </si>
+  <si>
+    <t>5203134107600460</t>
+  </si>
+  <si>
+    <t>SRI WASNIATI</t>
+  </si>
+  <si>
+    <t>5203134811890003</t>
+  </si>
+  <si>
+    <t>SRI NINGSIH</t>
+  </si>
+  <si>
+    <t>5203096010890001</t>
+  </si>
+  <si>
+    <t>EMA LIANA</t>
+  </si>
+  <si>
+    <t>5203095505030003</t>
+  </si>
+  <si>
+    <t>KADRI</t>
+  </si>
+  <si>
+    <t>5203093112840395</t>
+  </si>
+  <si>
+    <t>NURHANI SATUN</t>
+  </si>
+  <si>
+    <t>5203095310900003</t>
+  </si>
+  <si>
+    <t>REMBUN</t>
+  </si>
+  <si>
+    <t>5203094107270051</t>
+  </si>
+  <si>
+    <t>ASIMUDIN</t>
+  </si>
+  <si>
+    <t>5203091205800004</t>
+  </si>
+  <si>
+    <t>MISRIYANTI</t>
+  </si>
+  <si>
+    <t>5203094107821740</t>
+  </si>
+  <si>
+    <t>SIMAN</t>
+  </si>
+  <si>
+    <t>5203090107570273</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
+  <si>
+    <t>5203094107670336</t>
+  </si>
+  <si>
+    <t>5203095005960005</t>
+  </si>
+  <si>
+    <t>H. HASANUDDIN</t>
+  </si>
+  <si>
+    <t>5203093112600181</t>
+  </si>
+  <si>
+    <t>LATIPATUT THOYIBAH</t>
+  </si>
+  <si>
+    <t>5203095610990002</t>
+  </si>
+  <si>
+    <t>DEWI HARTANTI</t>
+  </si>
+  <si>
+    <t>5203094107980310</t>
+  </si>
+  <si>
+    <t>ASMAN</t>
+  </si>
+  <si>
+    <t>5203090107970146</t>
+  </si>
+  <si>
+    <t>HENDRI</t>
+  </si>
+  <si>
+    <t>5203093101770001</t>
+  </si>
+  <si>
+    <t>SAHIR</t>
+  </si>
+  <si>
+    <t>5203093112550091</t>
+  </si>
+  <si>
+    <t>UCI</t>
+  </si>
+  <si>
+    <t>5203097112600113</t>
+  </si>
+  <si>
+    <t>HALIDI</t>
+  </si>
+  <si>
+    <t>5203093012480010</t>
+  </si>
+  <si>
+    <t>NA'AH</t>
+  </si>
+  <si>
+    <t>5203095710760001</t>
+  </si>
+  <si>
+    <t>NASRUDIN</t>
+  </si>
+  <si>
+    <t>5203090101000033</t>
+  </si>
+  <si>
+    <t>JAPRI</t>
+  </si>
+  <si>
+    <t>5203091509870002</t>
+  </si>
+  <si>
+    <t>PAUZAN AZIMA</t>
+  </si>
+  <si>
+    <t>5203093112750268</t>
+  </si>
+  <si>
+    <t>MUHAEMI</t>
+  </si>
+  <si>
+    <t>5203090107700471</t>
+  </si>
+  <si>
+    <t>SURIANI</t>
+  </si>
+  <si>
+    <t>5203175507800002</t>
+  </si>
+  <si>
+    <t>NURHAYATI</t>
+  </si>
+  <si>
+    <t>5203137112790121</t>
+  </si>
+  <si>
+    <t>SALAMAN NULPARISI</t>
+  </si>
+  <si>
+    <t>5203133112010030</t>
+  </si>
+  <si>
+    <t>INAQ NURUL AINI</t>
+  </si>
+  <si>
+    <t>5203134107650362</t>
+  </si>
+  <si>
+    <t>MUH. JUHAIDI</t>
+  </si>
+  <si>
+    <t>5203130602880002</t>
+  </si>
+  <si>
+    <t>LAELATUL QADRIAH</t>
+  </si>
+  <si>
+    <t>5203137112990070</t>
+  </si>
+  <si>
+    <t>AHMAD SETIAWAN</t>
+  </si>
+  <si>
+    <t>5203131611840001</t>
+  </si>
+  <si>
+    <t>MAHFUZIAH</t>
+  </si>
+  <si>
+    <t>5203055804940004</t>
+  </si>
+  <si>
+    <t>SAHANUDDIN</t>
+  </si>
+  <si>
+    <t>5203131201840001</t>
+  </si>
+  <si>
+    <t>MUHAYYAH</t>
+  </si>
+  <si>
+    <t>5203135503850003</t>
+  </si>
+  <si>
+    <t>SAMSUDIN</t>
+  </si>
+  <si>
+    <t>5203133112630177</t>
+  </si>
+  <si>
+    <t>LALU MURNIAH</t>
+  </si>
+  <si>
+    <t>5203133112810108</t>
+  </si>
+  <si>
+    <t>NIRUN</t>
+  </si>
+  <si>
+    <t>5203137112830137</t>
+  </si>
+  <si>
+    <t>MARSUDIN</t>
+  </si>
+  <si>
+    <t>5203131504970003</t>
+  </si>
+  <si>
+    <t>SAUPI</t>
+  </si>
+  <si>
+    <t>5203175705950004</t>
+  </si>
+  <si>
+    <t>MAHSAN M</t>
+  </si>
+  <si>
+    <t>5203141212820011</t>
+  </si>
+  <si>
+    <t>WARNI MUKTI</t>
+  </si>
+  <si>
+    <t>5203137112830018</t>
+  </si>
+  <si>
+    <t>SUHARTO</t>
+  </si>
+  <si>
+    <t>5203130707870007</t>
+  </si>
+  <si>
+    <t>SITI FATIMAH</t>
+  </si>
+  <si>
+    <t>5203137112890172</t>
+  </si>
+  <si>
+    <t>MUH. SAHDI</t>
+  </si>
+  <si>
+    <t>5203130107900566</t>
+  </si>
+  <si>
+    <t>HAYANI</t>
+  </si>
+  <si>
+    <t>5203085903910002</t>
+  </si>
+  <si>
+    <t>MAEMUNAH</t>
+  </si>
+  <si>
+    <t>5203137112820263</t>
+  </si>
+  <si>
+    <t>AQ,ROFI'I</t>
+  </si>
+  <si>
+    <t>5203132010730002</t>
+  </si>
+  <si>
+    <t>ROSIDI</t>
+  </si>
+  <si>
+    <t>5203131610880001</t>
+  </si>
+  <si>
+    <t>BAIQ SOPIAH</t>
+  </si>
+  <si>
+    <t>5203134201920001</t>
+  </si>
+  <si>
+    <t>MULYADI</t>
+  </si>
+  <si>
+    <t>5203131011850016</t>
+  </si>
+  <si>
+    <t>MAHMULUDIN</t>
+  </si>
+  <si>
+    <t>5203130704040001</t>
+  </si>
+  <si>
+    <t>NURSIDAH</t>
+  </si>
+  <si>
+    <t>5203130202730003</t>
+  </si>
+  <si>
+    <t>MULIATI</t>
+  </si>
+  <si>
+    <t>5203137112810057</t>
+  </si>
+  <si>
+    <t>MARDIANA</t>
+  </si>
+  <si>
+    <t>5203133012680002</t>
+  </si>
+  <si>
+    <t>MUHSIN</t>
+  </si>
+  <si>
+    <t>5203133112830044</t>
+  </si>
+  <si>
+    <t>KADARIAH</t>
+  </si>
+  <si>
+    <t>5203135910850002</t>
+  </si>
+  <si>
+    <t>SYAMSUL HAKIM</t>
+  </si>
+  <si>
+    <t>5203131509040001</t>
   </si>
 </sst>
 </file>
@@ -592,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E639D963-8DCA-43EB-9289-B2C5F5F791E9}">
-  <dimension ref="A2:C32"/>
+  <dimension ref="A2:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,263 +841,263 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>47</v>
@@ -871,7 +1105,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>48</v>
@@ -882,7 +1116,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
@@ -893,7 +1127,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
@@ -904,7 +1138,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>54</v>
@@ -915,35 +1149,464 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>19</v>
-      </c>
-      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>51</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>56</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>57</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>58</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>60</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>63</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>64</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>65</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>66</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>67</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>68</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>69</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>70</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>71</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>72</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>73</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>74</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>75</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>76</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>77</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>78</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>79</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>80</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Kazwini/datakazwani.xlsx
+++ b/Kazwini/datakazwani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Kazwini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4EC7B7-914A-44D6-9FE3-F2BCEC0B17F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8597F48F-9D7D-4568-AE73-9DBBBF066863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{86EE98D5-C49E-423F-8B69-E5E94B31D34B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86EE98D5-C49E-423F-8B69-E5E94B31D34B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -25,180 +25,426 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t>MUKADDISAN</t>
-  </si>
-  <si>
-    <t>5203130507650001</t>
-  </si>
-  <si>
-    <t>LALU HARYONO</t>
-  </si>
-  <si>
-    <t>5203130406760001</t>
-  </si>
-  <si>
-    <t>AHYARDI</t>
-  </si>
-  <si>
-    <t>5203130107820819</t>
-  </si>
-  <si>
-    <t>HARTINI</t>
-  </si>
-  <si>
-    <t>5203134602840002</t>
-  </si>
-  <si>
-    <t>MUZAKKI</t>
-  </si>
-  <si>
-    <t>SALIMAH</t>
-  </si>
-  <si>
-    <t>5203137112420027</t>
-  </si>
-  <si>
-    <t>IDAWATI</t>
-  </si>
-  <si>
-    <t>5203134101840008</t>
-  </si>
-  <si>
-    <t>LALU SAMSUL HADI</t>
-  </si>
-  <si>
-    <t>5203131804960001</t>
-  </si>
-  <si>
-    <t>HERWI SUJONO</t>
-  </si>
-  <si>
-    <t>5203130101920004</t>
-  </si>
-  <si>
-    <t>KOMARIYAH ULFA</t>
-  </si>
-  <si>
-    <t>5203135006910007</t>
-  </si>
-  <si>
-    <t>AHYAR RASIDI</t>
-  </si>
-  <si>
-    <t>5203090710910004</t>
-  </si>
-  <si>
-    <t>ROSIDA</t>
-  </si>
-  <si>
-    <t>5203135306960005</t>
-  </si>
-  <si>
-    <t>SAHDAN SIDIK ZAM</t>
-  </si>
-  <si>
-    <t>5203133004700002</t>
-  </si>
-  <si>
-    <t>NURSASIH</t>
-  </si>
-  <si>
-    <t>5203134607750003</t>
-  </si>
-  <si>
-    <t>BAIQ HIDAYATI</t>
-  </si>
-  <si>
-    <t>5203136808840001</t>
-  </si>
-  <si>
-    <t>HUDAERI</t>
-  </si>
-  <si>
-    <t>5203135110820005</t>
-  </si>
-  <si>
-    <t>AHYAR BUDIANTO</t>
-  </si>
-  <si>
-    <t>5203130612850003</t>
-  </si>
-  <si>
-    <t>ZAETUL AENI</t>
-  </si>
-  <si>
-    <t>5203134611880005</t>
-  </si>
-  <si>
-    <t>INAQ NIRMALA</t>
-  </si>
-  <si>
-    <t>5203137112520117</t>
-  </si>
-  <si>
-    <t>5203130912740001</t>
-  </si>
-  <si>
-    <t>HERMAWATI</t>
-  </si>
-  <si>
-    <t>5203134107830418</t>
-  </si>
-  <si>
-    <t>AMAQ ZAENURI</t>
-  </si>
-  <si>
-    <t>5203130107560083</t>
-  </si>
-  <si>
-    <t>URIP</t>
-  </si>
-  <si>
-    <t>5203134107580085</t>
-  </si>
-  <si>
-    <t>RUDIANI</t>
-  </si>
-  <si>
-    <t>5203137112770059</t>
-  </si>
-  <si>
-    <t>INAQ AYUNI</t>
-  </si>
-  <si>
-    <t>5203134107330016</t>
-  </si>
-  <si>
-    <t>AHMAD YAZID</t>
-  </si>
-  <si>
-    <t>5203132110980002</t>
-  </si>
-  <si>
-    <t>MUHSINUL KARIM</t>
-  </si>
-  <si>
-    <t>5203132508860008</t>
-  </si>
-  <si>
-    <t>SRI PUSPA PANDINI</t>
-  </si>
-  <si>
-    <t>5203136603880001</t>
-  </si>
-  <si>
-    <t>AMAQ MUHSINUL KARIM</t>
-  </si>
-  <si>
-    <t>5203133112640063</t>
-  </si>
-  <si>
-    <t>FIKRIAH</t>
-  </si>
-  <si>
-    <t>5203134107720627</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+  <si>
+    <t>INAQ DOLAH</t>
+  </si>
+  <si>
+    <t>5203137112370014</t>
+  </si>
+  <si>
+    <t>ZIKRI HIDAYAT</t>
+  </si>
+  <si>
+    <t>5203133112900127</t>
+  </si>
+  <si>
+    <t>IQ. PATMAH</t>
+  </si>
+  <si>
+    <t>5203134107860430</t>
+  </si>
+  <si>
+    <t>MUSLIHUN</t>
+  </si>
+  <si>
+    <t>5203135101780001</t>
+  </si>
+  <si>
+    <t>SAEPUDDIN</t>
+  </si>
+  <si>
+    <t>5203130107650447</t>
+  </si>
+  <si>
+    <t>AISAH</t>
+  </si>
+  <si>
+    <t>5203134107670675</t>
+  </si>
+  <si>
+    <t>LALU M.NASRI</t>
+  </si>
+  <si>
+    <t>5203130110730003</t>
+  </si>
+  <si>
+    <t>H.MAZKUR</t>
+  </si>
+  <si>
+    <t>5203130112790008</t>
+  </si>
+  <si>
+    <t>MASLAH</t>
+  </si>
+  <si>
+    <t>5203137112840236</t>
+  </si>
+  <si>
+    <t>ENI KAPITRI BT NASRI ISBUL</t>
+  </si>
+  <si>
+    <t>5203134606850003</t>
+  </si>
+  <si>
+    <t>H. ABDUL HADI</t>
+  </si>
+  <si>
+    <t>5203133112530011</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NASRIN</t>
+  </si>
+  <si>
+    <t>5203132505890003</t>
+  </si>
+  <si>
+    <t>MASKURI</t>
+  </si>
+  <si>
+    <t>5203130101850024</t>
+  </si>
+  <si>
+    <t>MISDANI</t>
+  </si>
+  <si>
+    <t>5203134803920007</t>
+  </si>
+  <si>
+    <t>SUDIRMAN</t>
+  </si>
+  <si>
+    <t>2171071810859006</t>
+  </si>
+  <si>
+    <t>MAMIQ HARINI</t>
+  </si>
+  <si>
+    <t>5203133112670213</t>
+  </si>
+  <si>
+    <t>MUSHIMAYADI</t>
+  </si>
+  <si>
+    <t>5203137112720273</t>
+  </si>
+  <si>
+    <t>PAHRUL</t>
+  </si>
+  <si>
+    <t>5203133112780195</t>
+  </si>
+  <si>
+    <t>MARYAM SUPIANTI</t>
+  </si>
+  <si>
+    <t>5203097012990003</t>
+  </si>
+  <si>
+    <t>SUBAIKAH</t>
+  </si>
+  <si>
+    <t>5203137112570034</t>
+  </si>
+  <si>
+    <t>BAIQ SILA HAUFANA</t>
+  </si>
+  <si>
+    <t>5203145909930002</t>
+  </si>
+  <si>
+    <t>MQ.PUTRA</t>
+  </si>
+  <si>
+    <t>5203133112690067</t>
+  </si>
+  <si>
+    <t>BQ.SITI AISYAH</t>
+  </si>
+  <si>
+    <t>5203135111820001</t>
+  </si>
+  <si>
+    <t>LALU MUHAMMAD FAUZI, M.PD.SI</t>
+  </si>
+  <si>
+    <t>5203133112730072</t>
+  </si>
+  <si>
+    <t>KHAERUL ANWAR</t>
+  </si>
+  <si>
+    <t>5203131208790001</t>
+  </si>
+  <si>
+    <t>MARLINA</t>
+  </si>
+  <si>
+    <t>5203134905830004</t>
+  </si>
+  <si>
+    <t>MUH. SUPIANDI</t>
+  </si>
+  <si>
+    <t>5203133112930121</t>
+  </si>
+  <si>
+    <t>WAHDIAN RIZAL ZOHRI</t>
+  </si>
+  <si>
+    <t>5203131408910009</t>
+  </si>
+  <si>
+    <t>BAIQ YUNIATI</t>
+  </si>
+  <si>
+    <t>5203136706930001</t>
+  </si>
+  <si>
+    <t>HUMAIDI</t>
+  </si>
+  <si>
+    <t>5203130506830007</t>
+  </si>
+  <si>
+    <t>ANHAR MUKHTAR</t>
+  </si>
+  <si>
+    <t>5203131703820001</t>
+  </si>
+  <si>
+    <t>MASWAN</t>
+  </si>
+  <si>
+    <t>5203133012550004</t>
+  </si>
+  <si>
+    <t>MURNI</t>
+  </si>
+  <si>
+    <t>5203134107570446</t>
+  </si>
+  <si>
+    <t>NUR'AINI</t>
+  </si>
+  <si>
+    <t>5203137112740025</t>
+  </si>
+  <si>
+    <t>MUKLIS</t>
+  </si>
+  <si>
+    <t>5203090107880962</t>
+  </si>
+  <si>
+    <t>HERI AFANDI</t>
+  </si>
+  <si>
+    <t>5203130107780470</t>
+  </si>
+  <si>
+    <t>KUSAINI</t>
+  </si>
+  <si>
+    <t>5203130404730002</t>
+  </si>
+  <si>
+    <t>MUAWANAH ZULYANI</t>
+  </si>
+  <si>
+    <t>5203136001740002</t>
+  </si>
+  <si>
+    <t>MAIRAM</t>
+  </si>
+  <si>
+    <t>5201134107880050</t>
+  </si>
+  <si>
+    <t>HAMIDI</t>
+  </si>
+  <si>
+    <t>5203133006930002</t>
+  </si>
+  <si>
+    <t>NASIRIN</t>
+  </si>
+  <si>
+    <t>5203131908740001</t>
+  </si>
+  <si>
+    <t>HUSAMI</t>
+  </si>
+  <si>
+    <t>5203130611670001</t>
+  </si>
+  <si>
+    <t>HANAPI</t>
+  </si>
+  <si>
+    <t>5203133112930015</t>
+  </si>
+  <si>
+    <t>ELSI MARTINA</t>
+  </si>
+  <si>
+    <t>5203095206990011</t>
+  </si>
+  <si>
+    <t>INAQ ASMIWARDI</t>
+  </si>
+  <si>
+    <t>5203137112510020</t>
+  </si>
+  <si>
+    <t>PAIZAH</t>
+  </si>
+  <si>
+    <t>5203137112820323</t>
+  </si>
+  <si>
+    <t>ZARWANUN</t>
+  </si>
+  <si>
+    <t>5203134107760332</t>
+  </si>
+  <si>
+    <t>MUSAFFA</t>
+  </si>
+  <si>
+    <t>5203133112720094</t>
+  </si>
+  <si>
+    <t>MISLUM</t>
+  </si>
+  <si>
+    <t>5203134107770688</t>
+  </si>
+  <si>
+    <t>H. ASSAN</t>
+  </si>
+  <si>
+    <t>5203131705860001</t>
+  </si>
+  <si>
+    <t>LAELATURROHMAH</t>
+  </si>
+  <si>
+    <t>5203134710840001</t>
+  </si>
+  <si>
+    <t>TAUPIKURRAHMAN</t>
+  </si>
+  <si>
+    <t>5203070107870737</t>
+  </si>
+  <si>
+    <t>JOHARIAH</t>
+  </si>
+  <si>
+    <t>5203137012670001</t>
+  </si>
+  <si>
+    <t>MUKTI ALI</t>
+  </si>
+  <si>
+    <t>5203132106750002</t>
+  </si>
+  <si>
+    <t>WIDYAWATI</t>
+  </si>
+  <si>
+    <t>5203146812860005</t>
+  </si>
+  <si>
+    <t>AZIZAH</t>
+  </si>
+  <si>
+    <t>5203135408710001</t>
+  </si>
+  <si>
+    <t>IDAYATUL LAENI</t>
+  </si>
+  <si>
+    <t>5203134110970002</t>
+  </si>
+  <si>
+    <t>DELVIA NANDA SARI</t>
+  </si>
+  <si>
+    <t>5203076212990002</t>
+  </si>
+  <si>
+    <t>AMAQ SAHDAN</t>
+  </si>
+  <si>
+    <t>5203133112690069</t>
+  </si>
+  <si>
+    <t>SAMSUL HADI</t>
+  </si>
+  <si>
+    <t>5203130807900005</t>
+  </si>
+  <si>
+    <t>NUR AENI</t>
+  </si>
+  <si>
+    <t>5203137112950090</t>
+  </si>
+  <si>
+    <t>PIADATUL JANNAH</t>
+  </si>
+  <si>
+    <t>5203144811050003</t>
+  </si>
+  <si>
+    <t>SUHAILI</t>
+  </si>
+  <si>
+    <t>5203133112890116</t>
+  </si>
+  <si>
+    <t>INAQ ROHIMAH</t>
+  </si>
+  <si>
+    <t>5203134112550003</t>
+  </si>
+  <si>
+    <t>NURPIANI</t>
+  </si>
+  <si>
+    <t>5203206604900002</t>
+  </si>
+  <si>
+    <t>ZOHRI</t>
+  </si>
+  <si>
+    <t>5203133112820324</t>
+  </si>
+  <si>
+    <t>SIRIANI</t>
+  </si>
+  <si>
+    <t>5203134107860491</t>
+  </si>
+  <si>
+    <t>JAELANI</t>
+  </si>
+  <si>
+    <t>5203131108800001</t>
+  </si>
+  <si>
+    <t>ABDUL GANI</t>
+  </si>
+  <si>
+    <t>5203133112770025</t>
+  </si>
+  <si>
+    <t>ROSITA DEWI</t>
+  </si>
+  <si>
+    <t>5203135708830002</t>
   </si>
 </sst>
 </file>
@@ -568,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E639D963-8DCA-43EB-9289-B2C5F5F791E9}">
-  <dimension ref="A2:C30"/>
+  <dimension ref="A2:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,10 +887,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,10 +898,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,10 +909,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,10 +920,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,10 +931,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,10 +942,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,10 +953,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,10 +964,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,10 +975,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,10 +986,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,10 +997,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,10 +1008,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,10 +1019,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,10 +1030,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,10 +1041,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,10 +1052,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,10 +1063,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,10 +1074,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,10 +1085,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,10 +1096,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +1107,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +1118,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +1129,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +1140,461 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
